--- a/Jeremy Thesis/Logistic Regression Tests/Logistic Regression Results.xlsx
+++ b/Jeremy Thesis/Logistic Regression Tests/Logistic Regression Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miste\PycharmProjects\SCAL_USIgnite-911\Jeremy Thesis\Logistic Regression Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627CDF76-56AF-4FC5-87A7-9930D2814A3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B14E2E1-B19C-487F-B3DA-EA73E58D5299}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04C26C0F-0C4B-4454-BE01-6C8452FB381F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{04C26C0F-0C4B-4454-BE01-6C8452FB381F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Default Parameters" sheetId="1" r:id="rId1"/>
+    <sheet name="Specified Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="19">
   <si>
     <t>TP</t>
   </si>
@@ -85,6 +86,12 @@
   <si>
     <t>Bare Minimum</t>
   </si>
+  <si>
+    <t>Dropped: 'Hour'</t>
+  </si>
+  <si>
+    <t>Precip &amp; Viz Only Weather</t>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +136,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,12 +200,32 @@
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -497,16 +536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7297E218-124B-40D8-86D1-DA55FA6507E5}">
   <dimension ref="A1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
@@ -514,7 +552,8 @@
     <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" bestFit="1" customWidth="1"/>
@@ -984,7 +1023,7 @@
         <f t="shared" ref="C9:I9" si="0">AVERAGE(C2:C8)</f>
         <v>44</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>3980.4285714285716</v>
       </c>
@@ -1510,7 +1549,7 @@
         <f t="shared" ref="C19:I19" si="2">AVERAGE(C12:C18)</f>
         <v>37.142857142857146</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="20">
         <f t="shared" si="2"/>
         <v>3899.4285714285716</v>
       </c>
@@ -1545,7 +1584,7 @@
         <f t="shared" ref="M19:S19" si="3">AVERAGE(M12:M18)</f>
         <v>37.571428571428569</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="20">
         <f t="shared" si="3"/>
         <v>3906.1428571428573</v>
       </c>
@@ -2036,7 +2075,7 @@
         <f t="shared" ref="C29:I29" si="4">AVERAGE(C22:C28)</f>
         <v>62.857142857142854</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="21">
         <f t="shared" si="4"/>
         <v>3867.1428571428573</v>
       </c>
@@ -2071,7 +2110,7 @@
         <f t="shared" ref="M29:S29" si="5">AVERAGE(M22:M28)</f>
         <v>62.857142857142854</v>
       </c>
-      <c r="N29" s="13">
+      <c r="N29" s="21">
         <f t="shared" si="5"/>
         <v>3841.4285714285716</v>
       </c>
@@ -2117,282 +2156,799 @@
       <c r="S30" s="15"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="O31" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="29">
         <v>43831</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="30">
         <v>31</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="30">
         <v>34</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="30">
         <v>3278</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="30">
         <v>599</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="31">
         <v>47.692307692307601</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="31">
         <v>84.549909724013389</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="31">
         <v>4.92063492063492</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="31">
         <v>8.9208633093525105</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="K32" s="29">
+        <v>43831</v>
+      </c>
+      <c r="L32" s="30">
+        <v>28</v>
+      </c>
+      <c r="M32" s="30">
+        <v>37</v>
+      </c>
+      <c r="N32" s="30">
+        <v>3162</v>
+      </c>
+      <c r="O32" s="30">
+        <v>607</v>
+      </c>
+      <c r="P32" s="31">
+        <v>43.076923076923002</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>83.894932342796508</v>
+      </c>
+      <c r="R32" s="31">
+        <v>4.40944881889763</v>
+      </c>
+      <c r="S32" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="29">
         <v>43832</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="30">
         <v>64</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="30">
         <v>29</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="30">
         <v>3841</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="30">
         <v>665</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="31">
         <v>68.817204301075193</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="31">
         <v>85.241899689303096</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="31">
         <v>8.7791495198902592</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="31">
         <v>15.571776155717702</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="K33" s="29">
+        <v>43832</v>
+      </c>
+      <c r="L33" s="30">
+        <v>68</v>
+      </c>
+      <c r="M33" s="30">
+        <v>25</v>
+      </c>
+      <c r="N33" s="30">
+        <v>3763</v>
+      </c>
+      <c r="O33" s="30">
+        <v>617</v>
+      </c>
+      <c r="P33" s="31">
+        <v>73.118279569892394</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>85.913242009132389</v>
+      </c>
+      <c r="R33" s="31">
+        <v>9.9270072992700698</v>
+      </c>
+      <c r="S33" s="31">
+        <v>17.480719794344399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="29">
         <v>43833</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="30">
         <v>98</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="30">
         <v>48</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="30">
         <v>3822</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="30">
         <v>631</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="31">
         <v>67.123287671232802</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="31">
         <v>85.829777677969901</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="31">
         <v>13.443072702331902</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="31">
         <v>22.400000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="K34" s="29">
+        <v>43833</v>
+      </c>
+      <c r="L34" s="30">
+        <v>98</v>
+      </c>
+      <c r="M34" s="30">
+        <v>47</v>
+      </c>
+      <c r="N34" s="30">
+        <v>3741</v>
+      </c>
+      <c r="O34" s="30">
+        <v>587</v>
+      </c>
+      <c r="P34" s="31">
+        <v>67.586206896551701</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>86.437153419593301</v>
+      </c>
+      <c r="R34" s="31">
+        <v>14.3065693430656</v>
+      </c>
+      <c r="S34" s="31">
+        <v>23.6144578313253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="29">
         <v>43834</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="30">
         <v>38</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="30">
         <v>20</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="30">
         <v>3850</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="30">
         <v>691</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="31">
         <v>65.517241379310292</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="31">
         <v>84.783087425677095</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="31">
         <v>5.2126200274348404</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="31">
         <v>9.6569250317661997</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="K35" s="29">
+        <v>43834</v>
+      </c>
+      <c r="L35" s="30">
+        <v>43</v>
+      </c>
+      <c r="M35" s="30">
+        <v>15</v>
+      </c>
+      <c r="N35" s="30">
+        <v>3773</v>
+      </c>
+      <c r="O35" s="30">
+        <v>642</v>
+      </c>
+      <c r="P35" s="31">
+        <v>74.137931034482691</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>85.458663646659105</v>
+      </c>
+      <c r="R35" s="31">
+        <v>6.2773722627737198</v>
+      </c>
+      <c r="S35" s="31">
+        <v>11.5746971736204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="29">
         <v>43835</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="30">
         <v>32</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="30">
         <v>7</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="30">
         <v>3863</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="30">
         <v>697</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="31">
         <v>82.051282051282001</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="31">
         <v>84.714912280701711</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="31">
         <v>4.3895747599451296</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="31">
         <v>8.3333333333333304</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="K36" s="29">
+        <v>43835</v>
+      </c>
+      <c r="L36" s="30">
+        <v>33</v>
+      </c>
+      <c r="M36" s="30">
+        <v>6</v>
+      </c>
+      <c r="N36" s="30">
+        <v>3782</v>
+      </c>
+      <c r="O36" s="30">
+        <v>652</v>
+      </c>
+      <c r="P36" s="31">
+        <v>84.615384615384599</v>
+      </c>
+      <c r="Q36" s="31">
+        <v>85.295444294091112</v>
+      </c>
+      <c r="R36" s="31">
+        <v>4.8175182481751806</v>
+      </c>
+      <c r="S36" s="31">
+        <v>9.1160220994475107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="29">
         <v>43836</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="30">
         <v>58</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="30">
         <v>19</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="30">
         <v>3851</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="30">
         <v>671</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="31">
         <v>75.324675324675312</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="31">
         <v>85.161432994250291</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="31">
         <v>7.9561042524005394</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="31">
         <v>14.392059553349801</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="K37" s="29">
+        <v>43836</v>
+      </c>
+      <c r="L37" s="30">
+        <v>58</v>
+      </c>
+      <c r="M37" s="30">
+        <v>19</v>
+      </c>
+      <c r="N37" s="30">
+        <v>3769</v>
+      </c>
+      <c r="O37" s="30">
+        <v>627</v>
+      </c>
+      <c r="P37" s="31">
+        <v>75.324675324675312</v>
+      </c>
+      <c r="Q37" s="31">
+        <v>85.737033666969893</v>
+      </c>
+      <c r="R37" s="31">
+        <v>8.4671532846715305</v>
+      </c>
+      <c r="S37" s="31">
+        <v>15.223097112860801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="29">
         <v>43837</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="30">
         <v>59</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="30">
         <v>46</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="30">
         <v>3824</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="30">
         <v>670</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="31">
         <v>56.190476190476105</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="31">
         <v>85.091232754784102</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="31">
         <v>8.0932784636488293</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="31">
         <v>14.148681055155802</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="K38" s="29">
+        <v>43837</v>
+      </c>
+      <c r="L38" s="30">
+        <v>59</v>
+      </c>
+      <c r="M38" s="30">
+        <v>46</v>
+      </c>
+      <c r="N38" s="30">
+        <v>3742</v>
+      </c>
+      <c r="O38" s="30">
+        <v>626</v>
+      </c>
+      <c r="P38" s="31">
+        <v>56.190476190476105</v>
+      </c>
+      <c r="Q38" s="31">
+        <v>85.668498168498104</v>
+      </c>
+      <c r="R38" s="31">
+        <v>8.6131386861313803</v>
+      </c>
+      <c r="S38" s="31">
+        <v>14.936708860759401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="32">
         <f>AVERAGE(B32:B38)</f>
         <v>54.285714285714285</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="32">
         <f t="shared" ref="C39:I39" si="6">AVERAGE(C32:C38)</f>
         <v>29</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D39" s="32">
         <f t="shared" si="6"/>
         <v>3761.2857142857142</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E39" s="32">
         <f t="shared" si="6"/>
         <v>660.57142857142856</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="33">
         <f t="shared" si="6"/>
         <v>66.102353515765614</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="33">
         <f t="shared" si="6"/>
         <v>85.053178935242798</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="33">
         <f t="shared" si="6"/>
         <v>7.5420620923266313</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="33">
         <f t="shared" si="6"/>
         <v>13.346234062667907</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" s="28">
+        <f>AVERAGE(L32:L38)</f>
+        <v>55.285714285714285</v>
+      </c>
+      <c r="M39" s="28">
+        <f t="shared" ref="M39:S39" si="7">AVERAGE(M32:M38)</f>
+        <v>27.857142857142858</v>
+      </c>
+      <c r="N39" s="28">
+        <f t="shared" si="7"/>
+        <v>3676</v>
+      </c>
+      <c r="O39" s="28">
+        <f t="shared" si="7"/>
+        <v>622.57142857142856</v>
+      </c>
+      <c r="P39" s="33">
+        <f t="shared" si="7"/>
+        <v>67.721410958340826</v>
+      </c>
+      <c r="Q39" s="33">
+        <f t="shared" si="7"/>
+        <v>85.486423935391485</v>
+      </c>
+      <c r="R39" s="33">
+        <f t="shared" si="7"/>
+        <v>8.1168868489978738</v>
+      </c>
+      <c r="S39" s="33">
+        <f t="shared" si="7"/>
+        <v>14.277957553193971</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="K40" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>43831</v>
+      </c>
+      <c r="B42" s="22">
+        <v>29</v>
+      </c>
+      <c r="C42" s="22">
+        <v>36</v>
+      </c>
+      <c r="D42" s="22">
+        <v>3280</v>
+      </c>
+      <c r="E42" s="22">
+        <v>489</v>
+      </c>
+      <c r="F42" s="24">
+        <v>44.615384615384599</v>
+      </c>
+      <c r="G42" s="24">
+        <v>87.025736269567503</v>
+      </c>
+      <c r="H42" s="24">
+        <v>5.5984555984555904</v>
+      </c>
+      <c r="I42" s="24">
+        <v>9.9485420240137206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>43832</v>
+      </c>
+      <c r="B43" s="22">
+        <v>63</v>
+      </c>
+      <c r="C43" s="22">
+        <v>30</v>
+      </c>
+      <c r="D43" s="22">
+        <v>3498</v>
+      </c>
+      <c r="E43" s="22">
+        <v>882</v>
+      </c>
+      <c r="F43" s="24">
+        <v>67.74193548387089</v>
+      </c>
+      <c r="G43" s="24">
+        <v>79.863013698630098</v>
+      </c>
+      <c r="H43" s="24">
+        <v>6.6666666666666599</v>
+      </c>
+      <c r="I43" s="24">
+        <v>12.1387283236994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>43833</v>
+      </c>
+      <c r="B44" s="22">
+        <v>94</v>
+      </c>
+      <c r="C44" s="22">
+        <v>51</v>
+      </c>
+      <c r="D44" s="22">
+        <v>3831</v>
+      </c>
+      <c r="E44" s="22">
+        <v>497</v>
+      </c>
+      <c r="F44" s="24">
+        <v>64.827586206896498</v>
+      </c>
+      <c r="G44" s="24">
+        <v>88.516635859519397</v>
+      </c>
+      <c r="H44" s="24">
+        <v>15.905245346869702</v>
+      </c>
+      <c r="I44" s="24">
+        <v>25.543478260869502</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>43834</v>
+      </c>
+      <c r="B45" s="22">
+        <v>37</v>
+      </c>
+      <c r="C45" s="22">
+        <v>21</v>
+      </c>
+      <c r="D45" s="22">
+        <v>3865</v>
+      </c>
+      <c r="E45" s="22">
+        <v>550</v>
+      </c>
+      <c r="F45" s="24">
+        <v>63.793103448275801</v>
+      </c>
+      <c r="G45" s="24">
+        <v>87.542468856172093</v>
+      </c>
+      <c r="H45" s="24">
+        <v>6.3032367972742698</v>
+      </c>
+      <c r="I45" s="24">
+        <v>11.472868217054199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>43835</v>
+      </c>
+      <c r="B46" s="22">
+        <v>29</v>
+      </c>
+      <c r="C46" s="22">
+        <v>10</v>
+      </c>
+      <c r="D46" s="22">
+        <v>3547</v>
+      </c>
+      <c r="E46" s="22">
+        <v>887</v>
+      </c>
+      <c r="F46" s="24">
+        <v>74.358974358974294</v>
+      </c>
+      <c r="G46" s="24">
+        <v>79.995489400090207</v>
+      </c>
+      <c r="H46" s="24">
+        <v>3.1659388646288198</v>
+      </c>
+      <c r="I46" s="24">
+        <v>6.0732984293193706</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>43836</v>
+      </c>
+      <c r="B47" s="22">
+        <v>45</v>
+      </c>
+      <c r="C47" s="22">
+        <v>32</v>
+      </c>
+      <c r="D47" s="22">
+        <v>3871</v>
+      </c>
+      <c r="E47" s="22">
+        <v>525</v>
+      </c>
+      <c r="F47" s="24">
+        <v>58.441558441558406</v>
+      </c>
+      <c r="G47" s="24">
+        <v>88.057324840764295</v>
+      </c>
+      <c r="H47" s="24">
+        <v>7.8947368421052602</v>
+      </c>
+      <c r="I47" s="24">
+        <v>13.9103554868624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>43837</v>
+      </c>
+      <c r="B48" s="22">
+        <v>60</v>
+      </c>
+      <c r="C48" s="22">
+        <v>45</v>
+      </c>
+      <c r="D48" s="22">
+        <v>3919</v>
+      </c>
+      <c r="E48" s="22">
+        <v>449</v>
+      </c>
+      <c r="F48" s="24">
+        <v>57.142857142857096</v>
+      </c>
+      <c r="G48" s="24">
+        <v>89.7206959706959</v>
+      </c>
+      <c r="H48" s="24">
+        <v>11.7878192534381</v>
+      </c>
+      <c r="I48" s="24">
+        <v>19.543973941368002</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="26">
+        <f>AVERAGE(B42:B48)</f>
+        <v>51</v>
+      </c>
+      <c r="C49" s="26">
+        <f t="shared" ref="C49:I49" si="8">AVERAGE(C42:C48)</f>
+        <v>32.142857142857146</v>
+      </c>
+      <c r="D49" s="26">
+        <f t="shared" si="8"/>
+        <v>3687.2857142857142</v>
+      </c>
+      <c r="E49" s="26">
+        <f t="shared" si="8"/>
+        <v>611.28571428571433</v>
+      </c>
+      <c r="F49" s="27">
+        <f t="shared" si="8"/>
+        <v>61.560199956831084</v>
+      </c>
+      <c r="G49" s="27">
+        <f t="shared" si="8"/>
+        <v>85.817337842205646</v>
+      </c>
+      <c r="H49" s="27">
+        <f t="shared" si="8"/>
+        <v>8.1888713384912002</v>
+      </c>
+      <c r="I49" s="27">
+        <f t="shared" si="8"/>
+        <v>14.0901778118838</v>
+      </c>
       <c r="K49" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2406,6 +2962,297 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K67" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE30462E-8C31-4BF8-AC5B-5E81DC377B67}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>43831</v>
+      </c>
+      <c r="B2" s="1">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3551</v>
+      </c>
+      <c r="E2" s="1">
+        <v>218</v>
+      </c>
+      <c r="F2" s="5">
+        <v>26.1538461538461</v>
+      </c>
+      <c r="G2" s="5">
+        <v>94.215972406473796</v>
+      </c>
+      <c r="H2" s="5">
+        <v>7.2340425531914807</v>
+      </c>
+      <c r="I2" s="5">
+        <v>11.3333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>43832</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4053</v>
+      </c>
+      <c r="E3" s="1">
+        <v>327</v>
+      </c>
+      <c r="F3" s="5">
+        <v>50.537634408602095</v>
+      </c>
+      <c r="G3" s="5">
+        <v>92.534246575342408</v>
+      </c>
+      <c r="H3" s="5">
+        <v>12.566844919786</v>
+      </c>
+      <c r="I3" s="5">
+        <v>20.128479657387498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>43833</v>
+      </c>
+      <c r="B4" s="1">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1">
+        <v>65</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4029</v>
+      </c>
+      <c r="E4" s="1">
+        <v>299</v>
+      </c>
+      <c r="F4" s="5">
+        <v>55.172413793103402</v>
+      </c>
+      <c r="G4" s="5">
+        <v>93.091497227356697</v>
+      </c>
+      <c r="H4" s="5">
+        <v>21.108179419525001</v>
+      </c>
+      <c r="I4" s="5">
+        <v>30.534351145038102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>43834</v>
+      </c>
+      <c r="B5" s="1">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4107</v>
+      </c>
+      <c r="E5" s="1">
+        <v>308</v>
+      </c>
+      <c r="F5" s="5">
+        <v>48.275862068965502</v>
+      </c>
+      <c r="G5" s="5">
+        <v>93.023782559456407</v>
+      </c>
+      <c r="H5" s="5">
+        <v>8.3333333333333304</v>
+      </c>
+      <c r="I5" s="5">
+        <v>14.213197969543101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>43835</v>
+      </c>
+      <c r="B6" s="1">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3980</v>
+      </c>
+      <c r="E6" s="1">
+        <v>454</v>
+      </c>
+      <c r="F6" s="5">
+        <v>58.9743589743589</v>
+      </c>
+      <c r="G6" s="5">
+        <v>89.760938204781198</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4.8218029350104805</v>
+      </c>
+      <c r="I6" s="5">
+        <v>8.9147286821705407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>43836</v>
+      </c>
+      <c r="B7" s="1">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4130</v>
+      </c>
+      <c r="E7" s="1">
+        <v>266</v>
+      </c>
+      <c r="F7" s="5">
+        <v>42.857142857142797</v>
+      </c>
+      <c r="G7" s="5">
+        <v>93.949044585987195</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11.0367892976588</v>
+      </c>
+      <c r="I7" s="5">
+        <v>17.553191489361701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>43837</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4123</v>
+      </c>
+      <c r="E8" s="1">
+        <v>245</v>
+      </c>
+      <c r="F8" s="5">
+        <v>38.095238095237995</v>
+      </c>
+      <c r="G8" s="5">
+        <v>94.391025641025607</v>
+      </c>
+      <c r="H8" s="5">
+        <v>14.0350877192982</v>
+      </c>
+      <c r="I8" s="5">
+        <v>20.5128205128205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="19">
+        <f>AVERAGE(B2:B8)</f>
+        <v>38.285714285714285</v>
+      </c>
+      <c r="C9" s="19">
+        <f t="shared" ref="C9:I9" si="0">AVERAGE(C2:C8)</f>
+        <v>44.857142857142854</v>
+      </c>
+      <c r="D9" s="19">
+        <f t="shared" si="0"/>
+        <v>3996.1428571428573</v>
+      </c>
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>302.42857142857144</v>
+      </c>
+      <c r="F9" s="10">
+        <v>45.723785193036683</v>
+      </c>
+      <c r="G9" s="10">
+        <v>92.995215314346197</v>
+      </c>
+      <c r="H9" s="10">
+        <v>11.305154311114755</v>
+      </c>
+      <c r="I9" s="10">
+        <v>17.598586112807819</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
